--- a/每日操作记录.xlsx
+++ b/每日操作记录.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>日期</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -90,7 +90,16 @@
     <t>评价反思</t>
   </si>
   <si>
-    <t>底部割肉</t>
+    <t>永辉超市</t>
+  </si>
+  <si>
+    <t>加仓不果断</t>
+  </si>
+  <si>
+    <t>上涨至7.95</t>
+  </si>
+  <si>
+    <t>多头趋势出现，早盘应重仓买入</t>
   </si>
 </sst>
 </file>
@@ -450,7 +459,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -565,16 +574,22 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4">
-        <v>43822</v>
+        <v>43823</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>9.1999999999999993</v>
+        <v>7.8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
